--- a/medicine/Enfance/Bayard_(périodique)/Bayard_(périodique).xlsx
+++ b/medicine/Enfance/Bayard_(périodique)/Bayard_(périodique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bayard_(p%C3%A9riodique)</t>
+          <t>Bayard_(périodique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bayard est un périodique de bande dessinée français publié de 1936 à 1962 par Bayard presse, date à laquelle il devient Record.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bayard_(p%C3%A9riodique)</t>
+          <t>Bayard_(périodique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avant la guerre
-Bayard était un journal hebdomadaire catholique pour la jeunesse imprimé en couleurs et publié par Bayard presse. C'était le grand rival du Cœurs Vaillants (no 1 du 8 décembre 1929) de l' Union des œuvres catholiques de France (autre maison d'édition catholique pour la jeunesse). Lancé le dimanche 5 janvier 1936, à destination de 615 000 « petits gars de France », son format était plus petit et plus maniable (approximativement 26,7 x 37,7). Il remplace le journal l'Echo du « Noël ». La guerre interrompt sa parution en 1940 : le dernier numéro date du 9 juin 1940, no 232 (toutefois, la Maison de la Bonne Presse édite un album au premier semestre 1940 qui comprend les no 233 du 16 juin 1940 et no 234 du 23 juin 1940). La revue reparaît, provisoirement, quelques mois plus tard en zone libre, à Limoges, sous le nom de Jean et Paul : la numérotation suit celle de Bayard, no 233 du 15 décembre 1940, no 234 du 22 décembre 1940, etc. (de ce fait, il existe deux no 233 et deux no 234, d'une part sous le titre de Bayard, d'autre part sous le titre de Jean et Paul).
+          <t>Avant la guerre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayard était un journal hebdomadaire catholique pour la jeunesse imprimé en couleurs et publié par Bayard presse. C'était le grand rival du Cœurs Vaillants (no 1 du 8 décembre 1929) de l' Union des œuvres catholiques de France (autre maison d'édition catholique pour la jeunesse). Lancé le dimanche 5 janvier 1936, à destination de 615 000 « petits gars de France », son format était plus petit et plus maniable (approximativement 26,7 x 37,7). Il remplace le journal l'Echo du « Noël ». La guerre interrompt sa parution en 1940 : le dernier numéro date du 9 juin 1940, no 232 (toutefois, la Maison de la Bonne Presse édite un album au premier semestre 1940 qui comprend les no 233 du 16 juin 1940 et no 234 du 23 juin 1940). La revue reparaît, provisoirement, quelques mois plus tard en zone libre, à Limoges, sous le nom de Jean et Paul : la numérotation suit celle de Bayard, no 233 du 15 décembre 1940, no 234 du 22 décembre 1940, etc. (de ce fait, il existe deux no 233 et deux no 234, d'une part sous le titre de Bayard, d'autre part sous le titre de Jean et Paul).
 Le n° valait 0 fr. 25; l'abonnement annuel 12 fr. En juin 1938, il valait 35 centimes; l'abonnement annuel 15 fr. 50. En octobre 1938, il valait 40 centimes; l'abonnement annuel 18 fr. (mêmes prix en juin 1940).
 L'hebdomadaire, arborant, en première page, la devise : « Sans peur et sans reproche », était destiné à tous les jeunes garçons âgés de moins de 15 ans et, notamment, aux Scouts. « Le Chevalier » s'adressait à eux en les appelant « Petits Bayards » ou « Bayards » (après la guerre, c'est tantôt « Bayard », tantôt « Le Chevalier Noir » qui s'adresse aux lecteurs - toujours avec la silhouette du Chevalier Noir dans un angle de l'encadré - et aux courriers des lecteurs, répond « Le Chevalier Noir »).
 Les jeunes lecteurs étaient encouragés à créer des « Clubs Bayard », à vivre la devise citée ci-dessus, à porter l'insigne des « Bayards » (épée blanche, formant croix, sur un écu en émail couleur bleu de roi, bordé d'or ; sur le fond bleu se détachent les lettres S P - S R qui veulent dire : Sans peur, sans reproche.) et à respecter le « Code Bayard » :
@@ -559,8 +576,43 @@
 Et aussi de l'anticipation à la Jules Verne, mais après la guerre :
 L'homme ira dans la lune en l'an 2000 (n° 251 du 23 septembre 1951) : « - Comment ? Le Chevalier  Noir répète tout le temps que Bayard est un journal vrai, et Pierre Levasseur va nous raconter tout au long Destination : Lune ? Ça promet d'être intéressant, d'accord; mais ce n'est pas vrai. Alors ? - Doucement, mes amis. Le voyage dans la lune n'est pas encore une chose faite, mais ce n'est pas une chose IMPOSSIBLE. Tout récemment, les savants de la Société britannique des voyages interplanétaires ont déclaré que vers l'an 2000, peut-être même vers 1975, l'homme pourra réaliser un voyage aller et retour de la terre à la lune. En ce moment, des savants du monde entier mettent au point ce projet. Le principal objet de leur étude est la construction et la mise en place d'une petite planète artificielle tournant autour de la terre à plusieurs centaines de kilomètres au-dessus de la couche atmosphérique. À cette distance, le nouveau satellite ne subira plus l'attraction de la terre et pas encore celle de la lune : il restera donc immobile et pourra servir de poste de relais pour le futur voyage Terre-Lune. Les premiers essais se feront avec des fusées téléguidées munies d'appareils de télévision. Avec les renseignements fournis on pourra préparer le premier voyage des hommes sur la lune. »
 Finalement, le premier voyage dans la lune se fera en 1969 au cours de la mission spatiale Apollo 11.
-Après la guerre
-Bayard 1re série de  (no 1 du 8 décembre 1946 au no 499 du 24 juin 1956) aura un format plus petit (approximativement 18,7/26,7). N° vendu 5 francs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Après la guerre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayard 1re série de  (no 1 du 8 décembre 1946 au no 499 du 24 juin 1956) aura un format plus petit (approximativement 18,7/26,7). N° vendu 5 francs.
 Nous sommes après la guerre ; le ton général du journal est moins marqué par la religion ; du moins n'y a-t-il plus cette volonté de faire des jeunes lecteurs des missionnaires en herbe. Sans doute, ses rédacteurs entendent-ils s'adresser à un public plus large. Cependant, une place est laissée à de longs épisodes religieux tels la Bible ou la vie de Jésus; et plusieurs histoires sont flanquées de héros croyants vivant leur Foi. Les 2e et 3e séries se laïciseront encore davantage. Le souci sera davantage de présenter des hommes intègres, généreux, humains, tolérants.
 2e série (no 1 du 1er juillet 1956 au no 250 du 9 avril 1961) aura un format légèrement plus grand (approximativement 21,5/30), imprimée en offset. N° vendu 25 francs.
 3e série, enfin, (no 1 du 16 avril 1961 au no 40 du 14 janvier 1962) aura un format plus réduit que le précédent (approximativement 20,5/29). N° vendu 0,45 NF.
@@ -568,57 +620,291 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bayard_(p%C3%A9riodique)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Contenus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bandes dessinées
-Diverses aventures méritent d'être mentionnées (liste non exhaustive) :
-Genre biographie
-Invincible, scénario de Michel Bernard (tiré de la vie d'un prêtre de Turin appelé aujourd'hui saint Jean Bosco, dessiné par J.Y. Rochefort : du 27 février 1949 au 11 septembre 1949, no 117 à 145;
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses aventures méritent d'être mentionnées (liste non exhaustive) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Genre biographie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Invincible, scénario de Michel Bernard (tiré de la vie d'un prêtre de Turin appelé aujourd'hui saint Jean Bosco, dessiné par J.Y. Rochefort : du 27 février 1949 au 11 septembre 1949, no 117 à 145;
 Je veux être prêtre, la vie du curé d'Ars raconté par Marie-Paul Sève et imagée par Loÿs Pétillot, du 2 novembre 1958 au 20 septembre 1959, no 123 à 169;
-Monsieur Vincent, la vie de saint-Vincent-de-Paul, imagée par Loÿs Pétillot, du 24 janvier 1960 au 22 mai 1960, no 187 à 204;
-Genre chevaleresque
-Le Chevalier inconnu, une histoire de chevalerie, d'après le roman de Charles Foleÿ La reine de Bohême et ses sept châteaux (inspiré par l'œuvre de Charles Nodier, 1830), adapté par André Divajeu (Père Assomptionniste André Sève), illustré par Loÿs : du 9 mars 1952 au 28 décembre 1952, no 275 à 317;
+Monsieur Vincent, la vie de saint-Vincent-de-Paul, imagée par Loÿs Pétillot, du 24 janvier 1960 au 22 mai 1960, no 187 à 204;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Genre chevaleresque</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Chevalier inconnu, une histoire de chevalerie, d'après le roman de Charles Foleÿ La reine de Bohême et ses sept châteaux (inspiré par l'œuvre de Charles Nodier, 1830), adapté par André Divajeu (Père Assomptionniste André Sève), illustré par Loÿs : du 9 mars 1952 au 28 décembre 1952, no 275 à 317;
 la saga médiévale de Thierry de Royaumont, seigneur fictif du Moyen Âge et éternel fiancé de la belle Leïla de Coucy, de Jean Quimper (autre pseudonyme d'André Sève), illustrée par Pierre Forget : le Secret de l'Émir, inspiré de Raoul du Vertfaucon de Max Colomban (du 9 août 1953 au 10 octobre 1954, no 349 à 410); La Couronne d'épines (du 24 avril 1955 au 25 décembre 1955, no 438 à 473); l'Ombre de Saïno (du 31 mars 1957 au 25 mai 1958, no 40 à 100); Pour sauver Leïla (du 5 octobre 1958 au 18 octobre 1959, no 119 à 173);
 Le grand voyage du prince Offa : du 1er mai 1960 au 29 mai 1960, no 201 au 205;
 Le dernier des Penmarch, une histoire de Belloni et de Battaglia adaptée par Jean-Simon Rutalais : du 5 juin 1960 au 7 août 1960, no 206 à 215;
-Jehan et le mystère de Pontpierre : du 1er octobre 1961 au 14 janvier 1962, no 25 au no 40;
-Genre fiction
-Tony Sextant, chevalier de l'espace, texte de Jean Acquaviva, illustré par Julio Ribera : du 14 juillet 1957 au 21 septembre 1958, no 55 à 117; Rendez-vous à Tycho, 2e épisode des aventures de Tony Sextant : du 5 octobre 1958 au 24 janvier 1960, no 119 à 187; Syrtys Major ne répond plus, 3e épisode des aventures de Tony Sextant : du 5 juin 1960 au 27 novembre 1960, no 206 à 231; Deïmos, le satellite d'acier, 4e épisode des aventures de Tony Sextant : du 18 décembre 1960 à 11 juin 1961, no 234 à 9 (no 9 de la série débutant le 16 avril 1961);
-Genre historique
-La clé d'Antar, adaptation de Jean-Simon Rutalais: du 1er janvier 1956 au 24 juin 1956, no 474 au 499; il s'agit de l'histoire de Larth un jeune étrusque vivant au VIIe siècle av. J.-C. alors que Rome n'était qu'une petite bourgade...;
+Jehan et le mystère de Pontpierre : du 1er octobre 1961 au 14 janvier 1962, no 25 au no 40;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Genre fiction</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tony Sextant, chevalier de l'espace, texte de Jean Acquaviva, illustré par Julio Ribera : du 14 juillet 1957 au 21 septembre 1958, no 55 à 117; Rendez-vous à Tycho, 2e épisode des aventures de Tony Sextant : du 5 octobre 1958 au 24 janvier 1960, no 119 à 187; Syrtys Major ne répond plus, 3e épisode des aventures de Tony Sextant : du 5 juin 1960 au 27 novembre 1960, no 206 à 231; Deïmos, le satellite d'acier, 4e épisode des aventures de Tony Sextant : du 18 décembre 1960 à 11 juin 1961, no 234 à 9 (no 9 de la série débutant le 16 avril 1961);</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Genre historique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La clé d'Antar, adaptation de Jean-Simon Rutalais: du 1er janvier 1956 au 24 juin 1956, no 474 au 499; il s'agit de l'histoire de Larth un jeune étrusque vivant au VIIe siècle av. J.-C. alors que Rome n'était qu'une petite bourgade...;
 Pour Notre-Dame, un grand récit historique, dont la trame se déroule en Irlande, adapté par Jean-Simon Rutalais, illustré par G. Ferrari, d'après le texte de Atamante : du 13 juillet 1958 au 26 octobre 1958, no 107 à 122;
 Velthur le pacifique, un grand récit historique adapté par Pierre Mérou, illustré par de Luca : du 14 septembre 1958 au 15 février 1959, no 116 à 138;
 Ben Hur, scénario de R. de Barba, dessins de A. Sciotti, adaptation de Jean-Simon Rutalais : du 7 février 1960 au 24 avril 1960, no 189 au 200;
-Spartacus, du 19 mars 1961 au 14 mai 1961, no 247 à 5 (no 5 de la série ayant commencé le 16 avril 1961);
-Genre militaire
-Du Tchad au Rhin, l'épopée du Gal Leclerc (Philippe de Hautecloque) : du 9 mai 1948 au 12 décembre 1948, no 75 à 106;
-Parachutés au Laos, de Tony Verdon, illustré par Perrin-Houdon: du 14 janvier 1951 au 5 août 1951 no 215 à 244 &amp; du 19 août 1951 au 2 mars 1952, no 246 à 274;
-Genre policier
-Jo Kriss, Prince des dédectives, par Arsène Brivot : histoires dessinées sans suite, du 9 ou 16 juillet 1939 au 15 octobre 1939, no 184 ou 185 à 198 (l'aventure existe dans le no 185 du 16 juillet 1939);
+Spartacus, du 19 mars 1961 au 14 mai 1961, no 247 à 5 (no 5 de la série ayant commencé le 16 avril 1961);</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Genre militaire</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Du Tchad au Rhin, l'épopée du Gal Leclerc (Philippe de Hautecloque) : du 9 mai 1948 au 12 décembre 1948, no 75 à 106;
+Parachutés au Laos, de Tony Verdon, illustré par Perrin-Houdon: du 14 janvier 1951 au 5 août 1951 no 215 à 244 &amp; du 19 août 1951 au 2 mars 1952, no 246 à 274;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Genre policier</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jo Kriss, Prince des dédectives, par Arsène Brivot : histoires dessinées sans suite, du 9 ou 16 juillet 1939 au 15 octobre 1939, no 184 ou 185 à 198 (l'aventure existe dans le no 185 du 16 juillet 1939);
 Goupillon, Détective Amateur, par H. Fox : du 8 décembre 1946 au 19 janvier 1947, no 1 à 7;
 Riquet triomphe, par E. Regnault : du 4 décembre 1949 au 25 juin 1950, no 157 à 186;
 Pilou détective, aventure policière racontée et dessinée par Paul Astruc, du 11 mai 1952 au 4 janvier 1953, no 284 à 318;
@@ -630,14 +916,90 @@
 Type Cérès 1849, une aventure en anglais et en français réalisée par Mirot : du 18 novembre 1956 au 11 août 1957, no 21 à 59;
 Pas de chewing-gum à gogo !, une aventure en anglais et en français réalisée par Mirot : du 25 mai 1958 au 11 octobre 1959, no 100 à 172;
 L'énigmatique M. Paul, par Chakir : du 27 septembre 1959 au 18 septembre 1960, no 170 au 221;
-Le disparu de l'île de Ré, par Chakir : du 2 octobre 1960 au 1er octobre 1961, no 223 à no 25 (no 25 de la série débutant le 16 avril 1961);
-Genre religieux
-Mission au Kiang-Si, scénario de Denis Pasquier, imagé par Pierdec, du 29 janvier 1950 au 24 septembre 1950, no 165 à 199;
+Le disparu de l'île de Ré, par Chakir : du 2 octobre 1960 au 1er octobre 1961, no 223 à no 25 (no 25 de la série débutant le 16 avril 1961);</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Genre religieux</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mission au Kiang-Si, scénario de Denis Pasquier, imagé par Pierdec, du 29 janvier 1950 au 24 septembre 1950, no 165 à 199;
 La vie de Jésus, mise en images par Loÿs Pétillot, d'après le scénario d'André Sève : du 15 mars 1953 au 17 avril 1955, no 328 à 437;
 Lourdes, récit des apparitions de la Vierge Marie à Bernadette Soubirous, mis en images par Loÿs Pétillot : du 2 mars 1958 au 6 juillet 1958, no 88 à 106;
-Prisonnier en Sibérie, texte de Claude Marin, dessins de J. Ribera : du 16 avril 1961 au 28 mai 1961, no 1 à 7;
-Genre western
-Le totem du « Vieux-Cerf », (une aventure de Paulo), par Gervy le dessinateur de Pat'Apouf) : du 27 décembre 1936 au 28 novembre 1937, no 52 à 100; Les prodigieux exploits de Paulo : du 12 décembre 1937 au 2 juillet 1939, no 102 à 183; Paulo au Far-West : du 22 octobre 1939 au 28 janvier 1940, no 199 à 213 (Bayard, dans le no 215, s'excuse d'interrompre l'épisode faute de ne plus recevoir de planche "notre collaborateur est actuellement aux armées... c'est la guerre.");
+Prisonnier en Sibérie, texte de Claude Marin, dessins de J. Ribera : du 16 avril 1961 au 28 mai 1961, no 1 à 7;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Genre western</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le totem du « Vieux-Cerf », (une aventure de Paulo), par Gervy le dessinateur de Pat'Apouf) : du 27 décembre 1936 au 28 novembre 1937, no 52 à 100; Les prodigieux exploits de Paulo : du 12 décembre 1937 au 2 juillet 1939, no 102 à 183; Paulo au Far-West : du 22 octobre 1939 au 28 janvier 1940, no 199 à 213 (Bayard, dans le no 215, s'excuse d'interrompre l'épisode faute de ne plus recevoir de planche "notre collaborateur est actuellement aux armées... c'est la guerre.");
 L'hacienda rouge, par Roland Forgues : du 5 octobre 1947 au 4 avril 1948, no 44 à 70;
 Le trésor du vieil indien : du 5 octobre 1947 au 7 décembre 1947, no 44 à 53;
 Begui Zabala, par Gral : du 16 janvier 1949 au 20 février 1949, no 111 à 116;
@@ -649,9 +1011,47 @@
 Hiawatha II, une histoire de Jean-Simon Rutalais, illustrée par Alain d'Orange, aventure chez les indiens Corbeaux avec pour héros les deux amis Takonagu et Païota : du 1er janvier 1956 au 24 juin 1956, no 474 à 499;
 les aventures, genre western, de Bill Jourdan, de Jean Acquaviva, illustrées par Loÿs Pétillot : Le carnet noir : du 1er juillet 1956 au 21 juillet 1957, no 1 à 56; Tombstone : du 28 juillet 1957 au 17 août 1958, no 57 à 112; La mission de Vapahana : du 4 janvier 1959 au 17 janvier 1960, no 132 à 186; L'Or de Bonanza-City : du 31 janvier 1960 au 11 septembre 1960, no 188 à 220; Le désert de la mort : du 18 septembre 1960 au 30 avril 1961, no 221 à no 3 (no 3 de la série débutant le 16 avril 1961);
 Les flèches rouges, une grande aventure indienne adaptée par Jean-Simon Rutalais : du 13 octobre 1957 au 6 avril 1958, no 68 à 93;
-Tecumseh, la prodigieuse histoire du grand chef Shawnee qui lutta pour réaliser l'union de tous les peuples indiens réalisée par C. Onesti &amp; adaptée par Jean-Simon Rutalais : du 2 août 1959 au 31 janvier 1960, no 162 à 188;
-Autres
-Les Aventures de Marmousse et de Taxi, par Yves Péron : du 12 janvier 1936 au 25 juin 1939, no 2 à 182;
+Tecumseh, la prodigieuse histoire du grand chef Shawnee qui lutta pour réaliser l'union de tous les peuples indiens réalisée par C. Onesti &amp; adaptée par Jean-Simon Rutalais : du 2 août 1959 au 31 janvier 1960, no 162 à 188;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Aventures de Marmousse et de Taxi, par Yves Péron : du 12 janvier 1936 au 25 juin 1939, no 2 à 182;
 Les Exploits de Doudou, par Mosdyc : histoires dessinées sans suite, du 20 septembre 1936 au 29 novembre 1936, no 38 à 48, et no 52 du 27 décembre 1936, no 58 du 7 février 1937, no 138 du 21 août 1938;
 Goupil, par Colette Pattinger : histoires dessinées sans suite, notamment dans les no 68 du 18 avril 1937, no 69 du 25 avril 1937, no 78 du 27 juin 1937, no 85 du 15 août 1937, no 86 du 22 août 1937, no 90 du 19 septembre 1937, no 93 du 10 octobre 1937, no 116 du 20 mars 1938, no 117 du 27 mars 1938, no 124 du 15 mai 1938, no 130 du 26 juin 1938, no 132 du 10 juillet 1938, no 139 du 28 août 1938, no 140 du 4 septembre 1938, no 144 du 2 octobre 1938, no 155 du 18 décembre 1938, no 163 du 12 février 1939, no 167 du 12 mars 1939, no 189 du 13 août 1939, no 211 du 14 janvier 1940, no 219 du 10 mars 1940 (liste non exhaustive);
 Les Trois Petits Lapins, par Arsène Brivot : histoires dessinées sans suite, paraissant irrégulièrement, mettant en scène Zip, Zap et Zoup, notamment dans les no 59 du 14 février 1937, no 66 du 4 avril 1937, no 72 du 16 mai 1937, no 80 du 11 juillet 1937, no 83 du 1er août 1937, no 89 du 12 septembre 1937, no 92 du 3 octobre 1937, no 94 du 17 octobre 1937, no 101 du 5 décembre 1937, no 106 du 9 janvier 1938, no 110 du 6 février 1938, no 111 du 13 février 1938, no 114 du 6 mars 1938, no 127 du 5 juin 1938, no 129 du 19 juin 1938, no 135 du 31 juillet 1938, no 137 du 14 août 1938, no 141 du 11 septembre 1938, no 146 du 16 octobre 1938, no 153 du 4 décembre 1938, no 159 du 15 janvier 1939, no 168 du 19 mars 1939, no 176 du 14 mai 1939, no 179 du 4 juin 1939, no 183 du 2 juillet 1939; no 202 du 12 novembre 1939; no 216 du 18 février 1940, no 227 du 5 mai 1940 (liste non exhaustive);
@@ -695,9 +1095,43 @@
 Aux portes de l'espace : du 16 avril 1961 au 14 mai 1961, no 1 à 5;
 Plein gaz, scénario de Ken Mennell, dessins de H. Johns, adaptation de J.-S. Rutalais : du 11 juin 1961 au 3 septembre 1961, no 9 à 21;
 La Route aux aventures, texte de Claude Marin, dessins de J. Ribera : du 25 juin 1961 au 1er octobre 1961, no 11 à 25;
-Branle-bas chez les fadièze, scénario de J. Petit-Duc, dessins de R. Monzon : du 1er octobre 1961 au 14 janvier 1962, no 25 à 40;
-Histoires, récits illustrés
-Divers récits et histoires méritent d'être mentionnés (liste non exhaustive) :
+Branle-bas chez les fadièze, scénario de J. Petit-Duc, dessins de R. Monzon : du 1er octobre 1961 au 14 janvier 1962, no 25 à 40;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Histoires, récits illustrés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Divers récits et histoires méritent d'être mentionnés (liste non exhaustive) :
 L'histoire de Joseph, racontée par Georges Ramboux : du 29 novembre 1936 au 24 janvier 1937, no 48 à 56;
 Tack, Boby, Dadou &amp; Flip, histoires dessinées sans suite, du 13 décembre 1936 au 28 mars 1937, no 50 à 65 (absente dans les no 62 et 63), le 2 mai 1937 - no 70, le 23 mai 1937 - no 73, le 30 mai 1937 - no 74;
 La vie de Bertrand Du Guesclin, racontée par Georges Ramboux : du 31 janvier 1937 au 14 mars 1937, no 57 à 63;
@@ -749,9 +1183,43 @@
 Rozanoff, sa vie racontée par Philippe, illustrée par Loÿs : du 3 octobre 1954 au 12 décembre 1954, no 409 à 419;
 Chrétiens du Viet-Nam, récit de Tô Thi Diên, illustré par Pierre Forget : du 22 janvier 1956 au 10 juin 1956, no 477 au 497;
 Histoire sainte, récit de l'abbé Dheilly, imagé par de Luca : du 1er juillet 1956 au 10 janvier 1960, no 1 à 185;
-Baldur, texte de Jean d'Izieu, imagé par Pierre Forget (récit paru dans la collection « Prince Eric » (Alsatia)) : du 15 juin 1958 au 30 novembre 1958, no 103 à 127;
-Histoires, récits peu illustrés
-Divers récits et histoires méritent d'être mentionnés (liste non exhaustive)
+Baldur, texte de Jean d'Izieu, imagé par Pierre Forget (récit paru dans la collection « Prince Eric » (Alsatia)) : du 15 juin 1958 au 30 novembre 1958, no 103 à 127;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bayard_(périodique)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bayard_(p%C3%A9riodique)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Histoires, récits peu illustrés</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers récits et histoires méritent d'être mentionnés (liste non exhaustive)
 Dialo guide des Mages, par René Duverne, imagé par R. de La Négière : du 5 janvier 1936 au 19 janvier 1936, no 1 à 3;
 Hors du gouffre, par Max Colomban : du 5 janvier 1936 au 27 décembre 1936, no 1 à 52;
 Le fils de l'aviateur, par Myriam Catalany : du 12 janvier 1936 au 27 septembre 1936, no 2 à 39;
